--- a/docs/BitTimeCalculator.xlsx
+++ b/docs/BitTimeCalculator.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>BitTime Calculator</t>
-  </si>
-  <si>
-    <t>ControllerClock-Frequency</t>
   </si>
   <si>
     <t>(0 - 63)</t>
@@ -54,9 +51,6 @@
     <t>ns</t>
   </si>
   <si>
-    <t>Hz</t>
-  </si>
-  <si>
     <t>Baudrate</t>
   </si>
   <si>
@@ -66,21 +60,9 @@
     <t>max. Bittime</t>
   </si>
   <si>
-    <t>||</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>\||/</t>
-  </si>
-  <si>
     <t>(min. 1; max. 8)</t>
   </si>
   <si>
-    <t>(min. 1; max. 1)</t>
-  </si>
-  <si>
     <t>(min. 2; max. 8)</t>
   </si>
   <si>
@@ -106,9 +88,6 @@
   </si>
   <si>
     <t>tprop</t>
-  </si>
-  <si>
-    <t>SJW</t>
   </si>
   <si>
     <t>(1 - 4)</t>
@@ -204,9 +183,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>Register</t>
   </si>
   <si>
     <t>DEC</t>
@@ -346,6 +322,126 @@
   <si>
     <t>Register-Values for the MCP2515</t>
   </si>
+  <si>
+    <t>Required Inputs</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>Controller Clock-Frequency</t>
+  </si>
+  <si>
+    <t>Choose a reasonable value.</t>
+  </si>
+  <si>
+    <t>MHz</t>
+  </si>
+  <si>
+    <t>Choose the Value of the used Oscillator (1 - 40 MHz).</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Bittime</t>
+  </si>
+  <si>
+    <t>PS2 Bit Time Length (BTLMODE)</t>
+  </si>
+  <si>
+    <t>1 = Length of PS2 is determined by the PHSEG2[2:0] bits of CNF3
+0 = Length of PS2 is the greater of PS1 and IPT (2 TQs)</t>
+  </si>
+  <si>
+    <t>Sample Point Configuration (SAM)</t>
+  </si>
+  <si>
+    <t>1 = Bus line is sampled three times at the sample point
+0 = Bus line is sampled once at the sample point</t>
+  </si>
+  <si>
+    <t>Register-Setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJW1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJW0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRP5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRP4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRP3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRP2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRP1 </t>
+  </si>
+  <si>
+    <t>BRP0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTLMODE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHSEG1[2:0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRSEG2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRSEG1 </t>
+  </si>
+  <si>
+    <t>PRSEG0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAKFIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">— </t>
+  </si>
+  <si>
+    <t>PHSEG2[2:0]</t>
+  </si>
+  <si>
+    <t>1 = Wake-up filter is enabled
+0 = Wake-up filter is disabled</t>
+  </si>
+  <si>
+    <t>Start-of-Frame signal (SOF)</t>
+  </si>
+  <si>
+    <t>Wake-up Filter (WAKFIL)</t>
+  </si>
+  <si>
+    <t>optional Inputs</t>
+  </si>
+  <si>
+    <t>Synchronization Jump Width (SJW)</t>
+  </si>
+  <si>
+    <t>calculated BaudRate Prescaler</t>
+  </si>
+  <si>
+    <t>If CLKEN (CANCTRL[2]) = 1:
+1 = CLKOUT pin is enabled for SOF signal
+0 = CLKOUT pin is enabled for clock out function
+If CLKEN (CANCTRL[2]) = 0: Bit is don’t care.</t>
+  </si>
 </sst>
 </file>
 
@@ -354,7 +450,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,16 +516,86 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -444,15 +610,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="4"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -513,8 +670,103 @@
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="medium">
-        <color rgb="FFFF0000"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -526,9 +778,373 @@
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
+      <top style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,109 +1155,420 @@
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="31" xfId="12" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="11" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="32" xfId="12" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="11" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="11" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="11" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="8" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="8" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="22" xfId="13" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="23" xfId="13" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="47" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="25" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="27" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="28" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
+    <cellStyle name="20 % - Akzent5" xfId="11" builtinId="46"/>
+    <cellStyle name="20 % - Akzent6" xfId="14" builtinId="50"/>
+    <cellStyle name="40 % - Akzent2" xfId="6" builtinId="35"/>
+    <cellStyle name="40 % - Akzent3" xfId="7" builtinId="39"/>
+    <cellStyle name="40 % - Akzent4" xfId="9" builtinId="43"/>
+    <cellStyle name="60 % - Akzent5" xfId="12" builtinId="48"/>
+    <cellStyle name="Akzent2" xfId="5" builtinId="33"/>
+    <cellStyle name="Akzent4" xfId="8" builtinId="41"/>
+    <cellStyle name="Akzent5" xfId="10" builtinId="45"/>
+    <cellStyle name="Akzent6" xfId="13" builtinId="49"/>
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 1" xfId="2" builtinId="16"/>
     <cellStyle name="Überschrift 2" xfId="3" builtinId="17"/>
     <cellStyle name="Überschrift 3" xfId="4" builtinId="18"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -652,14 +1579,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -722,6 +1656,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -762,14 +1717,11 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -798,6 +1750,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Sequence devision</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -805,19 +1813,30 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4444444444444446E-2"/>
-          <c:y val="3.7037037037037035E-2"/>
+          <c:x val="5.1178464746802606E-2"/>
+          <c:y val="0.19196665557650366"/>
           <c:w val="0.90048818897637795"/>
-          <c:h val="0.89814814814814814"/>
+          <c:h val="0.76259905511811032"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="percentStacked"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TQ SyncSeg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -828,22 +1847,122 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>max. Bittime</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strLit>
               <c:ptCount val="1"/>
               <c:pt idx="0">
-                <c:v>Bit</c:v>
+                <c:v>Sequnces</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$13</c:f>
+              <c:f>(Tabelle1!$G$11,Tabelle1!$M$12)</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0.00">
                   <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,6 +1971,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TQ PropSeg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -866,13 +1996,13 @@
             <c:strLit>
               <c:ptCount val="1"/>
               <c:pt idx="0">
-                <c:v>Bit</c:v>
+                <c:v>Sequnces</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$14</c:f>
+              <c:f>Tabelle1!$G$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -886,6 +2016,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TQ PhaseSeg1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -900,13 +2041,13 @@
             <c:strLit>
               <c:ptCount val="1"/>
               <c:pt idx="0">
-                <c:v>Bit</c:v>
+                <c:v>Sequnces</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$15</c:f>
+              <c:f>Tabelle1!$G$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -920,6 +2061,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TQ PhaseSeg2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -934,13 +2086,13 @@
             <c:strLit>
               <c:ptCount val="1"/>
               <c:pt idx="0">
-                <c:v>Bit</c:v>
+                <c:v>Sequnces</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$16</c:f>
+              <c:f>Tabelle1!$G$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -961,54 +2113,21 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-334569984"/>
-        <c:axId val="-334560192"/>
+        <c:axId val="874511232"/>
+        <c:axId val="874512320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-334569984"/>
+        <c:axId val="874511232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-334560192"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="874512320"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +2135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-334560192"/>
+        <c:axId val="874512320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,17 +2145,14 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -1069,7 +2185,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-334569984"/>
+        <c:crossAx val="874511232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1081,6 +2197,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6734021775238425E-2"/>
+          <c:y val="0.53666603674540669"/>
+          <c:w val="0.8999999734881553"/>
+          <c:h val="9.0000629921259859E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1665,17 +2822,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1696,28 +2853,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A24:D27" totalsRowShown="0" tableBorderDxfId="18">
-  <autoFilter ref="A24:D27">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Register"/>
-    <tableColumn id="2" name="DEC"/>
-    <tableColumn id="3" name="BIN" dataDxfId="17">
-      <calculatedColumnFormula>DEC2BIN(Tabelle1[[#This Row],[DEC]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="HEX">
-      <calculatedColumnFormula>DEC2HEX(Tabelle1[[#This Row],[DEC]])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1983,537 +3118,1399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="37" topLeftCell="L41" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="4"/>
+    <col min="12" max="14" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+    <row r="2" spans="1:24" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="8">
+        <v>500</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+    </row>
+    <row r="5" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="10">
+        <v>8</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$15,128),7),1)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$15,64),6),1)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="26">
-        <v>8000000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="31" t="s">
+      <c r="S6" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$15,32),5),1)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$15,16),4),1)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$15,8),3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$15,4),2),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$15,2),1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$15,1),0),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$17,128),7),1)</f>
+        <v>1</v>
+      </c>
+      <c r="R8" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$17,64),6),1)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="43" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$17,32),5),1)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="44" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$17,16),4),1)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="45" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$17,8),3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="V8" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$17,4),2),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$17,2),1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$17,1),0),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48">
+        <f>(SUM(D11:D13)/SUM(D11:D14))*100</f>
+        <v>62.5</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="W9" s="41"/>
+      <c r="X9" s="42"/>
+    </row>
+    <row r="10" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="56"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="58"/>
+      <c r="M10" s="2">
+        <f>2*G11</f>
+        <v>500</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$19,128),7),1)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="38" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$19,64),6),1)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10" s="43" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$19,4),2),1)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="44" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$19,2),1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="X10" s="45" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND($R$19,1),0),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="28"/>
+      <c r="B11" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64">
+        <f>((D11*2*($D$17+$D$18+1))/($D$6*1000000))*1000000000</f>
+        <v>250</v>
+      </c>
+      <c r="H11" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+    </row>
+    <row r="12" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="28"/>
+      <c r="B12" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64">
+        <f>((D12*2*($D$17+$D$18+1))/($D$6*1000000))*1000000000</f>
+        <v>500</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="28">
+      <c r="L12" s="33"/>
+      <c r="M12" s="2">
+        <f>IF(D4&gt;0,(1/(D4*1000))*1000*1000*1000,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="69"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+    </row>
+    <row r="13" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="28"/>
+      <c r="B13" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64">
+        <f>((D13*2*($D$17+$D$18+1))/($D$6*1000000))*1000000000</f>
         <v>500</v>
       </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H13" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="33"/>
+      <c r="M13" s="70">
+        <f>SUM(G11:G14)</f>
+        <v>2000</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="27">
+    <row r="14" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="28"/>
+      <c r="B14" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="9">
+        <v>3</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74">
+        <f>((D14*2*($D$17+$D$18+1))/($D$6*1000000))*1000000000</f>
+        <v>750</v>
+      </c>
+      <c r="H14" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="L14" s="33"/>
+      <c r="M14" s="2">
+        <f>M12/SUM(D11:D14)</f>
+        <v>250</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="S14" s="77"/>
+      <c r="T14" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="78"/>
+      <c r="V14" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="W14" s="80"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="81" t="s">
         <v>9</v>
       </c>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="83">
+        <f>_xlfn.BITXOR(_xlfn.BITLSHIFT(DEC2HEX(D7-1),6),((D17)+D18))</f>
+        <v>64</v>
+      </c>
+      <c r="S15" s="84"/>
+      <c r="T15" s="85" t="str">
+        <f>DEC2BIN(R15)</f>
+        <v>1000000</v>
+      </c>
+      <c r="U15" s="85"/>
+      <c r="V15" s="86" t="str">
+        <f>DEC2HEX(R15)</f>
+        <v>40</v>
+      </c>
+      <c r="W15" s="87"/>
+      <c r="X15" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I5" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="18"/>
-      <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="96"/>
+      <c r="D17" s="7">
+        <f>ROUND(IF(((((M14/1000000000)*(D6*1000000))/2)-1)&gt;=0,((((M14/1000000000)*(D6*1000000))/2)-1),-1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="90">
+        <f>_xlfn.BITXOR(_xlfn.BITXOR(_xlfn.BITXOR(_xlfn.BITLSHIFT(DEC2HEX(D13-1),3),(D12-1)),_xlfn.BITLSHIFT(DEC2HEX(D22),7)),_xlfn.BITLSHIFT(DEC2HEX(D24),6))</f>
+        <v>137</v>
+      </c>
+      <c r="S17" s="91"/>
+      <c r="T17" s="92" t="str">
+        <f>DEC2BIN(R17)</f>
+        <v>10001001</v>
+      </c>
+      <c r="U17" s="92"/>
+      <c r="V17" s="93" t="str">
+        <f>DEC2HEX(R17)</f>
+        <v>89</v>
+      </c>
+      <c r="W17" s="94"/>
+      <c r="X17" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="I7" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="99"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="I8" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="90">
+        <f>_xlfn.BITXOR(_xlfn.BITXOR(_xlfn.BITLSHIFT(DEC2HEX(D26),7),(D14-1)),_xlfn.BITLSHIFT(DEC2HEX(D30),6))</f>
+        <v>2</v>
+      </c>
+      <c r="S19" s="91"/>
+      <c r="T19" s="92" t="str">
+        <f>DEC2BIN(R19)</f>
+        <v>10</v>
+      </c>
+      <c r="U19" s="92"/>
+      <c r="V19" s="93" t="str">
+        <f>DEC2HEX(R19)</f>
+        <v>2</v>
+      </c>
+      <c r="W19" s="94"/>
+      <c r="X19" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="I9" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I10" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="21" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
     </row>
-    <row r="12" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="I12" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="29">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="23">
-        <f>((C13*2*($D$18+$D$19+1))/$D$3)*1000000000</f>
-        <v>250</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="4"/>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="30">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="23">
-        <f t="shared" ref="F14:F16" si="0">((C14*2*($D$18+$D$19+1))/$D$3)*1000000000</f>
-        <v>500</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="4"/>
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="30">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="23">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="24">
-        <f>IF(I3&gt;0,(1/(I3*1000))*1000*1000*1000,0)</f>
-        <v>2000</v>
-      </c>
-      <c r="K15" t="s">
-        <v>4</v>
-      </c>
+    <row r="26" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="27">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="23">
-        <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="25">
-        <f>SUM(F13:F16)</f>
-        <v>2000</v>
-      </c>
-      <c r="K16" t="s">
-        <v>4</v>
-      </c>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="114"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="32">
-        <f>ROUND(IF(((((I18/1000000000)*D3)/2)-1)&gt;=0,((((I18/1000000000)*D3)/2)-1),-1),0)</f>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="114"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="114"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="12">
         <v>0</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="24">
-        <f>J15/SUM(C13:C16)</f>
-        <v>250</v>
-      </c>
-      <c r="J18" t="s">
-        <v>4</v>
-      </c>
+      <c r="E30" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="33">
-        <v>0</v>
-      </c>
-      <c r="E19" s="22"/>
+    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="114"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
     </row>
-    <row r="23" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25">
-        <f>_xlfn.BITXOR(_xlfn.BITLSHIFT(DEC2HEX(D4-1),6),((D18)+D19))</f>
-        <v>64</v>
-      </c>
-      <c r="C25" t="str">
-        <f>DEC2BIN(Tabelle1[[#This Row],[DEC]])</f>
-        <v>1000000</v>
-      </c>
-      <c r="D25" t="str">
-        <f>DEC2HEX(Tabelle1[[#This Row],[DEC]])</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26">
-        <f>_xlfn.BITXOR(_xlfn.BITXOR(_xlfn.BITLSHIFT(DEC2HEX(C15-1),3),(C14-1)),_xlfn.BITLSHIFT(DEC2HEX(1),7))</f>
-        <v>137</v>
-      </c>
-      <c r="C26" t="str">
-        <f>DEC2BIN(Tabelle1[[#This Row],[DEC]])</f>
-        <v>10001001</v>
-      </c>
-      <c r="D26" t="str">
-        <f>DEC2HEX(Tabelle1[[#This Row],[DEC]])</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27">
-        <f>C16-1</f>
-        <v>2</v>
-      </c>
-      <c r="C27" t="str">
-        <f>DEC2BIN(Tabelle1[[#This Row],[DEC]])</f>
-        <v>10</v>
-      </c>
-      <c r="D27" t="str">
-        <f>DEC2HEX(Tabelle1[[#This Row],[DEC]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="3">
-        <f>(SUM(C13:C15)/SUM(C13:C16))*100</f>
-        <v>62.5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="34">
-        <f>2*F13</f>
-        <v>500</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>30</v>
-      </c>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N39Syy0ErKJhN0dXODTDDnGvXwupa0YuttqL9IxEAfiWIS/gE8f0HfBy1p7dUwG78y7iaPwMmpHe71ltJJWvZA==" saltValue="jcz4u0clAoVt2UtIEd8DCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="28">
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="G3:H3"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PTe7CqzOXkEgDaFIFSdo9q0yfyHTHRzrYMcEHvVSZ+mx/aIxtPxYGDSKYHBN+SFbCBfEoMFa+DLCigIuT6gQpQ==" saltValue="4uX4YqbAFDipozghifBrlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="69">
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="A1:X2"/>
+    <mergeCell ref="P13:X13"/>
+    <mergeCell ref="P15:Q16"/>
+    <mergeCell ref="P17:Q18"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R15:S16"/>
+    <mergeCell ref="R17:S18"/>
+    <mergeCell ref="R19:S20"/>
+    <mergeCell ref="T15:U16"/>
+    <mergeCell ref="T17:U18"/>
+    <mergeCell ref="T19:U20"/>
+    <mergeCell ref="V15:W16"/>
+    <mergeCell ref="V17:W18"/>
+    <mergeCell ref="V19:W20"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="E26:J29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="A26:C29"/>
+    <mergeCell ref="P4:X4"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="E22:J23"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:J25"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="P3:X3"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="16" priority="11">
-      <formula>IF(OR($C$16&lt;2,$C$16&gt;8),1,0)</formula>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="21" priority="5">
+      <formula>IF($D$22=1,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="16">
+      <formula>IF($D$22=1,IF(OR($D$14&lt;2,$D$14&gt;8),1,0),0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="15" priority="10">
-      <formula>IF(OR($C$15&lt;1,$C$15&gt;8),1,0)</formula>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="19" priority="15">
+      <formula>IF(OR($D$13&lt;1,$D$13&gt;8),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="14" priority="9">
-      <formula>IF(OR($C$14&lt;1,$C$14&gt;8),1,0)</formula>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>IF(OR($D$12&lt;1,$D$12&gt;8),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="13" priority="8">
-      <formula>IF(OR($C$13&lt;1,$C$13&gt;1),1,0)</formula>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>IF(OR($D$11&lt;1,$D$11&gt;1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D19">
-    <cfRule type="expression" dxfId="12" priority="7">
-      <formula>IF(OR(($D$18+$D$19)&lt;0,($D$18+$D$19)&gt;63),1,0)</formula>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="expression" dxfId="16" priority="12">
+      <formula>IF(OR(($D$17+$D$18)&lt;0,($D$17+$D$18)&gt;63),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="11" priority="6">
-      <formula>IF(OR($D$4&lt;1,$D$4&gt;4),1,0)</formula>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="15" priority="11">
+      <formula>IF(OR($D$7&lt;1,$D$7&gt;4),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="10" priority="4">
-      <formula>IF(AND($C$32&gt;=60,$C$32&lt;=70),1,0)</formula>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="expression" dxfId="14" priority="9">
+      <formula>IF(AND($M$9&gt;=60,$M$9&lt;=70),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>IF(OR($C$32&lt;60,$C$32&gt;70),1,0)</formula>
+    <cfRule type="expression" dxfId="13" priority="10">
+      <formula>IF(OR($M$9&lt;60,$M$9&gt;70),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="8" priority="26">
-      <formula>IF(($C$14+$C$15)&lt;$C$16,1,0)</formula>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="expression" dxfId="12" priority="6">
+      <formula>IF($M$13&lt;$M$12,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="27">
-      <formula>IF(($C$14+$C$15)&gt;=$C$16,1,0)</formula>
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>IF($M$13=$M$12,1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>IF($M$13&gt;$M$12,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="6" priority="28">
-      <formula>IF($C$16&gt;$D$4,1,0)</formula>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="expression" dxfId="9" priority="41">
+      <formula>IF(($D$12+$D$13)&lt;$D$14,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="29">
-      <formula>IF($C$16&lt;=$D$4,1,0)</formula>
+    <cfRule type="expression" dxfId="8" priority="42">
+      <formula>IF(($D$12+$D$13)&gt;=$D$14,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="4" priority="30">
-      <formula>IF(($F$14+$F$15)&gt;=$C$33,1,0)</formula>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="expression" dxfId="7" priority="45">
+      <formula>IF($D$14&gt;$D$7,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="31">
-      <formula>IF(($F$14+$F$15)&lt;$C$33,1,0)</formula>
+    <cfRule type="expression" dxfId="6" priority="46">
+      <formula>IF($D$14&lt;=$D$7,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>IF($J$16&lt;$J$15,1,0)</formula>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="expression" dxfId="5" priority="49">
+      <formula>IF(($G$12+$G$13)&gt;=$M$10,1,0)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="4" priority="50">
+      <formula>IF(($G$12+$G$13)&lt;$M$10,1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D23">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF(OR($D$22&gt;1,$D$22&lt;0),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D25">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(OR($D$24&gt;1,$D$24&lt;0),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D29">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF($J$16=$J$15,1,0)</formula>
+      <formula>IF(OR($D$26&gt;1,$D$26&lt;0),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>IF($J$16&gt;$J$15,1,0)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D31">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(OR($D$30&gt;1,$D$30&lt;0),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>